--- a/hebrewOutputs/hebrew82Comperation_6_Common_alpha=0.0.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_6_Common_alpha=0.0.xlsx
@@ -61,21 +61,21 @@
     <t>שלום. אני ד"ר סוס.</t>
   </si>
   <si>
+    <t xml:space="preserve">שלום. מכיר. </t>
+  </si>
+  <si>
+    <t>gives-other</t>
+  </si>
+  <si>
+    <t>יאללה. אפשר לקחת אותו הביתה?</t>
+  </si>
+  <si>
+    <t>אא עדיין לא.</t>
+  </si>
+  <si>
     <t>gives-med</t>
   </si>
   <si>
-    <t xml:space="preserve">שלום. מכיר. </t>
-  </si>
-  <si>
-    <t>gives-other</t>
-  </si>
-  <si>
-    <t>יאללה. אפשר לקחת אותו הביתה?</t>
-  </si>
-  <si>
-    <t>אא עדיין לא.</t>
-  </si>
-  <si>
     <t>r/o</t>
   </si>
   <si>
@@ -97,6 +97,9 @@
     <t>כן.</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>נו אז יאללה נו אז יאללה,</t>
   </si>
   <si>
@@ -304,6 +307,9 @@
     <t>?reassure</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t>תראה, אני מבין שזה קשה. זה חדשות אא כבדות ככה להפיל ברגע אחד.</t>
   </si>
   <si>
@@ -325,9 +331,6 @@
     <t xml:space="preserve">כן, הוא גם יכול למות בגיל חמישים מלחץ ב... לא יודע. </t>
   </si>
   <si>
-    <t>concern</t>
-  </si>
-  <si>
     <t>אא זה לא מדויק. זה לא מדויק. זה לא ש... ילדים חולי סכרת הם אא לא מחזיקים מעמד. להיפך, הם יכולים לנהל חיים נורמאליים לגמרי ולחיות חיים שלמים.</t>
   </si>
   <si>
@@ -395,9 +398,6 @@
   </si>
   <si>
     <t>אני מבין</t>
-  </si>
-  <si>
-    <t>agree</t>
   </si>
   <si>
     <t>ואנחנו נתמודד איתו.</t>
@@ -861,7 +861,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -903,7 +903,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -911,13 +911,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -939,10 +939,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -959,7 +959,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -987,7 +987,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1012,10 +1012,10 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1051,13 +1051,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1065,13 +1065,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -1079,13 +1079,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1135,13 +1135,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -1163,13 +1163,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -1177,13 +1177,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1205,13 +1205,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -1219,13 +1219,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1247,13 +1247,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -1264,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1275,13 +1275,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1303,13 +1303,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -1320,7 +1320,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -1348,7 +1348,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1359,13 +1359,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -1373,13 +1373,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
         <v>20</v>
@@ -1401,13 +1401,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -1415,13 +1415,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
@@ -1429,13 +1429,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -1443,13 +1443,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -1485,13 +1485,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
@@ -1499,13 +1499,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1513,13 +1513,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1527,13 +1527,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -1541,13 +1541,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1555,10 +1555,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1583,13 +1583,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
@@ -1597,13 +1597,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -1625,10 +1625,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -1695,13 +1695,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
@@ -1723,10 +1723,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -1737,13 +1737,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1765,13 +1765,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1779,13 +1779,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -1821,10 +1821,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1835,13 +1835,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" t="s">
         <v>91</v>
       </c>
-      <c r="B73" t="s">
-        <v>90</v>
-      </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -1877,13 +1877,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -1891,13 +1891,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1919,13 +1919,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" t="s">
         <v>99</v>
       </c>
-      <c r="B79" t="s">
-        <v>97</v>
-      </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -1933,13 +1933,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
@@ -1947,13 +1947,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
@@ -1961,13 +1961,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1975,10 +1975,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
         <v>20</v>
@@ -1989,10 +1989,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -2017,10 +2017,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -2031,10 +2031,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
         <v>20</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -2087,13 +2087,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -2101,13 +2101,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -2115,13 +2115,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -2143,13 +2143,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2157,13 +2157,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2171,13 +2171,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
@@ -2185,13 +2185,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
@@ -2213,13 +2213,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
@@ -2227,10 +2227,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
@@ -2241,13 +2241,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D102" t="s">
         <v>10</v>
@@ -2255,10 +2255,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C103" t="s">
         <v>20</v>
@@ -2269,13 +2269,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2286,7 +2286,7 @@
         <v>128</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C105" t="s">
         <v>20</v>
@@ -2300,10 +2300,10 @@
         <v>129</v>
       </c>
       <c r="B106" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -2314,7 +2314,7 @@
         <v>130</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C107" t="s">
         <v>20</v>
@@ -2328,10 +2328,10 @@
         <v>131</v>
       </c>
       <c r="B108" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
@@ -2356,10 +2356,10 @@
         <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
@@ -2384,7 +2384,7 @@
         <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
@@ -2398,10 +2398,10 @@
         <v>136</v>
       </c>
       <c r="B113" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
@@ -2412,7 +2412,7 @@
         <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
@@ -2429,7 +2429,7 @@
         <v>138</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D115" t="s">
         <v>10</v>
@@ -2457,7 +2457,7 @@
         <v>142</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
         <v>10</v>
@@ -2471,7 +2471,7 @@
         <v>144</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
@@ -2485,7 +2485,7 @@
         <v>142</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
         <v>10</v>
@@ -2510,10 +2510,10 @@
         <v>147</v>
       </c>
       <c r="B121" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
         <v>10</v>
@@ -2524,7 +2524,7 @@
         <v>148</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -2538,10 +2538,10 @@
         <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
@@ -2566,7 +2566,7 @@
         <v>151</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C125" t="s">
         <v>20</v>
@@ -2580,10 +2580,10 @@
         <v>152</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D126" t="s">
         <v>10</v>
@@ -2594,10 +2594,10 @@
         <v>153</v>
       </c>
       <c r="B127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
@@ -2608,7 +2608,7 @@
         <v>154</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C128" t="s">
         <v>20</v>
@@ -2625,7 +2625,7 @@
         <v>144</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -2636,10 +2636,10 @@
         <v>156</v>
       </c>
       <c r="B130" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
@@ -2653,7 +2653,7 @@
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D131" t="s">
         <v>10</v>
